--- a/APM files/124406528/Expedia Properties to Onboard 2.23.24.xlsx
+++ b/APM files/124406528/Expedia Properties to Onboard 2.23.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\124406528\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A79B39A-DCA3-45AB-B21E-BC408D36CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B1495-CD73-4EB6-9C23-9634DFDDAF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="1800" windowWidth="21510" windowHeight="13215" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="3690" windowWidth="21510" windowHeight="13215" firstSheet="23" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9.29.23" sheetId="2" state="hidden" r:id="rId1"/>
